--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225628.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20221128.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 28/10/2022 - 10:56:58</t>
+    <t>Informação extraída do SIGBM: 28/10/2022 - 11:11:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20221128.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223529.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 28/10/2022 - 11:11:35</t>
+    <t>Informação extraída do SIGBM: 29/10/2022 - 08:35:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223529.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20224629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 29/10/2022 - 08:35:52</t>
+    <t>Informação extraída do SIGBM: 29/10/2022 - 08:46:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20224629.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 29/10/2022 - 08:46:32</t>
+    <t>Informação extraída do SIGBM: 29/10/2022 - 08:57:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225729.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 29/10/2022 - 08:57:12</t>
+    <t>Informação extraída do SIGBM: 29/10/2022 - 09:32:31</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20223229.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 29/10/2022 - 09:32:31</t>
+    <t>Informação extraída do SIGBM: 29/10/2022 - 09:59:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2022-10-29.xlsx
+++ b/sigbm_download_2022-10-29.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20225929.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20222629.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4300" uniqueCount="4300">
   <si>
-    <t>Informação extraída do SIGBM: 29/10/2022 - 09:59:30</t>
+    <t>Informação extraída do SIGBM: 29/10/2022 - 10:26:06</t>
   </si>
   <si>
     <t>ID Barragem</t>
